--- a/Wordpress-Basics/SoftUni-Svetlina/WordPress-Basics-Svetlina-Octomber-2018-Schedule.xlsx
+++ b/Wordpress-Basics/SoftUni-Svetlina/WordPress-Basics-Svetlina-Octomber-2018-Schedule.xlsx
@@ -137,8 +137,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mmm"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -225,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -283,6 +284,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,7 +721,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,15 +739,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -782,7 +786,7 @@
         <v>43375</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E11" si="0">TEXT(D3,"dddd")</f>
+        <f t="shared" ref="E3:E7" si="0">TEXT(D3,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -899,9 +903,9 @@
         <v>18</v>
       </c>
       <c r="D8" s="10">
-        <v>43375</v>
-      </c>
-      <c r="E8" s="16" t="str">
+        <v>43410</v>
+      </c>
+      <c r="E8" s="14" t="str">
         <f>TEXT(D8,"dddd")</f>
         <v>вторник</v>
       </c>
@@ -923,10 +927,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="10">
-        <v>43410</v>
+        <v>43417</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(D8,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -947,10 +951,10 @@
         <v>21</v>
       </c>
       <c r="D10" s="10">
-        <v>43417</v>
+        <v>43424</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(D9,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -971,10 +975,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="10">
-        <v>43424</v>
+        <v>43431</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(D10,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -994,11 +998,11 @@
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="10">
-        <v>43431</v>
+      <c r="D12" s="20">
+        <v>43438</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f t="shared" ref="E12:E18" si="1">TEXT(D12,"dddd")</f>
+        <f>TEXT(D11,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -1019,10 +1023,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="10">
-        <v>43452</v>
+        <v>43445</v>
       </c>
       <c r="E13" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E13" si="1">TEXT(D13,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -1043,10 +1047,10 @@
         <v>36</v>
       </c>
       <c r="D14" s="10">
-        <v>43473</v>
-      </c>
-      <c r="E14" s="16" t="str">
-        <f t="shared" si="1"/>
+        <v>43452</v>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f>TEXT(D13,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -1067,10 +1071,10 @@
         <v>30</v>
       </c>
       <c r="D15" s="10">
-        <v>43480</v>
+        <v>43473</v>
       </c>
       <c r="E15" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(D14,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F15" s="11" t="s">
@@ -1091,10 +1095,10 @@
         <v>30</v>
       </c>
       <c r="D16" s="10">
-        <v>43487</v>
+        <v>43480</v>
       </c>
       <c r="E16" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(D15,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -1115,10 +1119,10 @@
         <v>29</v>
       </c>
       <c r="D17" s="10">
-        <v>43494</v>
+        <v>43487</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(D16,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -1137,10 +1141,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="10">
-        <v>43508</v>
+        <v>43494</v>
       </c>
       <c r="E18" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(D17,"dddd")</f>
         <v>вторник</v>
       </c>
       <c r="F18" s="11" t="s">
